--- a/DMSNewVSale_2025-11-20_22-08.xlsx
+++ b/DMSNewVSale_2025-11-20_22-08.xlsx
@@ -861,6 +861,15 @@
   </si>
   <si>
     <t>TELFAST 30MG/5ML SUSP. 100 ML</t>
+  </si>
+  <si>
+    <t>TIMOLOL MALEATE 0.5% EYE DROPS 5 ML</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>19.5000</t>
   </si>
   <si>
     <t>TORSAMOLEX 20MG 20 TABS</t>
@@ -4798,7 +4807,7 @@
       </c>
       <c r="O101" s="8"/>
       <c t="s" r="P101" s="11">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c t="s" r="Q101" s="12">
         <v>20</v>
@@ -4810,14 +4819,14 @@
       </c>
       <c r="B102" s="7"/>
       <c t="s" r="C102" s="8">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
       <c r="G102" s="8"/>
       <c t="s" r="H102" s="9">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
@@ -4827,11 +4836,11 @@
       </c>
       <c r="M102" s="10"/>
       <c t="s" r="N102" s="8">
-        <v>118</v>
+        <v>288</v>
       </c>
       <c r="O102" s="8"/>
       <c t="s" r="P102" s="11">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q102" s="12">
         <v>20</v>
@@ -4843,14 +4852,14 @@
       </c>
       <c r="B103" s="7"/>
       <c t="s" r="C103" s="8">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
       <c r="G103" s="8"/>
       <c t="s" r="H103" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
@@ -4860,14 +4869,14 @@
       </c>
       <c r="M103" s="10"/>
       <c t="s" r="N103" s="8">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="O103" s="8"/>
       <c t="s" r="P103" s="11">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c t="s" r="Q103" s="12">
-        <v>69</v>
+        <v>20</v>
       </c>
     </row>
     <row r="104" ht="25.5" customHeight="1">
@@ -4876,14 +4885,14 @@
       </c>
       <c r="B104" s="7"/>
       <c t="s" r="C104" s="8">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
       <c r="G104" s="8"/>
       <c t="s" r="H104" s="9">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
@@ -4893,14 +4902,14 @@
       </c>
       <c r="M104" s="10"/>
       <c t="s" r="N104" s="8">
-        <v>291</v>
+        <v>88</v>
       </c>
       <c r="O104" s="8"/>
       <c t="s" r="P104" s="11">
-        <v>239</v>
+        <v>292</v>
       </c>
       <c t="s" r="Q104" s="12">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
     <row r="105" ht="24.75" customHeight="1">
@@ -4909,14 +4918,14 @@
       </c>
       <c r="B105" s="7"/>
       <c t="s" r="C105" s="8">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="8"/>
       <c t="s" r="H105" s="9">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
@@ -4926,11 +4935,11 @@
       </c>
       <c r="M105" s="10"/>
       <c t="s" r="N105" s="8">
-        <v>205</v>
+        <v>294</v>
       </c>
       <c r="O105" s="8"/>
       <c t="s" r="P105" s="11">
-        <v>213</v>
+        <v>239</v>
       </c>
       <c t="s" r="Q105" s="12">
         <v>15</v>
@@ -4942,28 +4951,28 @@
       </c>
       <c r="B106" s="7"/>
       <c t="s" r="C106" s="8">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
       <c r="G106" s="8"/>
       <c t="s" r="H106" s="9">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
       <c r="K106" s="9"/>
       <c t="s" r="L106" s="10">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="M106" s="10"/>
       <c t="s" r="N106" s="8">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="O106" s="8"/>
       <c t="s" r="P106" s="11">
-        <v>261</v>
+        <v>213</v>
       </c>
       <c t="s" r="Q106" s="12">
         <v>15</v>
@@ -4975,31 +4984,31 @@
       </c>
       <c r="B107" s="7"/>
       <c t="s" r="C107" s="8">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
       <c r="G107" s="8"/>
       <c t="s" r="H107" s="9">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
       <c r="K107" s="9"/>
       <c t="s" r="L107" s="10">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="M107" s="10"/>
       <c t="s" r="N107" s="8">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="O107" s="8"/>
       <c t="s" r="P107" s="11">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c t="s" r="Q107" s="12">
-        <v>80</v>
+        <v>15</v>
       </c>
     </row>
     <row r="108" ht="24.75" customHeight="1">
@@ -5008,14 +5017,14 @@
       </c>
       <c r="B108" s="7"/>
       <c t="s" r="C108" s="8">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
       <c r="G108" s="8"/>
       <c t="s" r="H108" s="9">
-        <v>11</v>
+        <v>139</v>
       </c>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
@@ -5025,14 +5034,14 @@
       </c>
       <c r="M108" s="10"/>
       <c t="s" r="N108" s="8">
-        <v>13</v>
+        <v>228</v>
       </c>
       <c r="O108" s="8"/>
       <c t="s" r="P108" s="11">
-        <v>104</v>
+        <v>278</v>
       </c>
       <c t="s" r="Q108" s="12">
-        <v>20</v>
+        <v>80</v>
       </c>
     </row>
     <row r="109" ht="25.5" customHeight="1">
@@ -5041,14 +5050,14 @@
       </c>
       <c r="B109" s="7"/>
       <c t="s" r="C109" s="8">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
       <c r="G109" s="8"/>
       <c t="s" r="H109" s="9">
-        <v>297</v>
+        <v>11</v>
       </c>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
@@ -5058,14 +5067,14 @@
       </c>
       <c r="M109" s="10"/>
       <c t="s" r="N109" s="8">
-        <v>298</v>
+        <v>13</v>
       </c>
       <c r="O109" s="8"/>
       <c t="s" r="P109" s="11">
-        <v>299</v>
+        <v>104</v>
       </c>
       <c t="s" r="Q109" s="12">
-        <v>139</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" ht="24.75" customHeight="1">
@@ -5074,14 +5083,14 @@
       </c>
       <c r="B110" s="7"/>
       <c t="s" r="C110" s="8">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
       <c r="G110" s="8"/>
       <c t="s" r="H110" s="9">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
@@ -5091,14 +5100,14 @@
       </c>
       <c r="M110" s="10"/>
       <c t="s" r="N110" s="8">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="O110" s="8"/>
       <c t="s" r="P110" s="11">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c t="s" r="Q110" s="12">
-        <v>20</v>
+        <v>139</v>
       </c>
     </row>
     <row r="111" ht="25.5" customHeight="1">
@@ -5107,14 +5116,14 @@
       </c>
       <c r="B111" s="7"/>
       <c t="s" r="C111" s="8">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
       <c r="G111" s="8"/>
       <c t="s" r="H111" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
@@ -5124,14 +5133,14 @@
       </c>
       <c r="M111" s="10"/>
       <c t="s" r="N111" s="8">
-        <v>164</v>
+        <v>268</v>
       </c>
       <c r="O111" s="8"/>
       <c t="s" r="P111" s="11">
-        <v>82</v>
+        <v>304</v>
       </c>
       <c t="s" r="Q111" s="12">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -5140,14 +5149,14 @@
       </c>
       <c r="B112" s="7"/>
       <c t="s" r="C112" s="8">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
       <c r="G112" s="8"/>
       <c t="s" r="H112" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
@@ -5157,14 +5166,14 @@
       </c>
       <c r="M112" s="10"/>
       <c t="s" r="N112" s="8">
-        <v>70</v>
+        <v>164</v>
       </c>
       <c r="O112" s="8"/>
       <c t="s" r="P112" s="11">
-        <v>304</v>
+        <v>82</v>
       </c>
       <c t="s" r="Q112" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="113" ht="24.75" customHeight="1">
@@ -5173,14 +5182,14 @@
       </c>
       <c r="B113" s="7"/>
       <c t="s" r="C113" s="8">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
       <c r="G113" s="8"/>
       <c t="s" r="H113" s="9">
-        <v>306</v>
+        <v>17</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
@@ -5190,14 +5199,14 @@
       </c>
       <c r="M113" s="10"/>
       <c t="s" r="N113" s="8">
-        <v>307</v>
+        <v>70</v>
       </c>
       <c r="O113" s="8"/>
       <c t="s" r="P113" s="11">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c t="s" r="Q113" s="12">
-        <v>139</v>
+        <v>20</v>
       </c>
     </row>
     <row r="114" ht="25.5" customHeight="1">
@@ -5206,14 +5215,14 @@
       </c>
       <c r="B114" s="7"/>
       <c t="s" r="C114" s="8">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
       <c r="G114" s="8"/>
       <c t="s" r="H114" s="9">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
@@ -5246,7 +5255,7 @@
       <c r="F115" s="8"/>
       <c r="G115" s="8"/>
       <c t="s" r="H115" s="9">
-        <v>17</v>
+        <v>300</v>
       </c>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
@@ -5256,14 +5265,14 @@
       </c>
       <c r="M115" s="10"/>
       <c t="s" r="N115" s="8">
-        <v>216</v>
+        <v>313</v>
       </c>
       <c r="O115" s="8"/>
       <c t="s" r="P115" s="11">
-        <v>219</v>
+        <v>314</v>
       </c>
       <c t="s" r="Q115" s="12">
-        <v>15</v>
+        <v>139</v>
       </c>
     </row>
     <row r="116" ht="25.5" customHeight="1">
@@ -5272,14 +5281,14 @@
       </c>
       <c r="B116" s="7"/>
       <c t="s" r="C116" s="8">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
       <c r="G116" s="8"/>
       <c t="s" r="H116" s="9">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
@@ -5289,14 +5298,14 @@
       </c>
       <c r="M116" s="10"/>
       <c t="s" r="N116" s="8">
-        <v>314</v>
+        <v>216</v>
       </c>
       <c r="O116" s="8"/>
       <c t="s" r="P116" s="11">
-        <v>315</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q116" s="12">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -5312,21 +5321,21 @@
       <c r="F117" s="8"/>
       <c r="G117" s="8"/>
       <c t="s" r="H117" s="9">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
       <c r="K117" s="9"/>
       <c t="s" r="L117" s="10">
-        <v>33</v>
+        <v>12</v>
       </c>
       <c r="M117" s="10"/>
       <c t="s" r="N117" s="8">
-        <v>26</v>
+        <v>317</v>
       </c>
       <c r="O117" s="8"/>
       <c t="s" r="P117" s="11">
-        <v>27</v>
+        <v>318</v>
       </c>
       <c t="s" r="Q117" s="12">
         <v>20</v>
@@ -5338,14 +5347,14 @@
       </c>
       <c r="B118" s="7"/>
       <c t="s" r="C118" s="8">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
       <c r="G118" s="8"/>
       <c t="s" r="H118" s="9">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
@@ -5355,14 +5364,14 @@
       </c>
       <c r="M118" s="10"/>
       <c t="s" r="N118" s="8">
-        <v>318</v>
+        <v>26</v>
       </c>
       <c r="O118" s="8"/>
       <c t="s" r="P118" s="11">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c t="s" r="Q118" s="12">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="119" ht="25.5" customHeight="1">
@@ -5371,14 +5380,14 @@
       </c>
       <c r="B119" s="7"/>
       <c t="s" r="C119" s="8">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
       <c r="G119" s="8"/>
       <c t="s" r="H119" s="9">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
@@ -5388,14 +5397,14 @@
       </c>
       <c r="M119" s="10"/>
       <c t="s" r="N119" s="8">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O119" s="8"/>
       <c t="s" r="P119" s="11">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c t="s" r="Q119" s="12">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="120" ht="24.75" customHeight="1">
@@ -5404,14 +5413,14 @@
       </c>
       <c r="B120" s="7"/>
       <c t="s" r="C120" s="8">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
       <c r="G120" s="8"/>
       <c t="s" r="H120" s="9">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
@@ -5421,11 +5430,11 @@
       </c>
       <c r="M120" s="10"/>
       <c t="s" r="N120" s="8">
-        <v>47</v>
+        <v>323</v>
       </c>
       <c r="O120" s="8"/>
       <c t="s" r="P120" s="11">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q120" s="12">
         <v>20</v>
@@ -5437,14 +5446,14 @@
       </c>
       <c r="B121" s="7"/>
       <c t="s" r="C121" s="8">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
       <c r="G121" s="8"/>
       <c t="s" r="H121" s="9">
-        <v>17</v>
+        <v>80</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
@@ -5454,14 +5463,14 @@
       </c>
       <c r="M121" s="10"/>
       <c t="s" r="N121" s="8">
-        <v>323</v>
+        <v>47</v>
       </c>
       <c r="O121" s="8"/>
       <c t="s" r="P121" s="11">
-        <v>104</v>
+        <v>48</v>
       </c>
       <c t="s" r="Q121" s="12">
-        <v>324</v>
+        <v>20</v>
       </c>
     </row>
     <row r="122" ht="25.5" customHeight="1">
@@ -5491,10 +5500,10 @@
       </c>
       <c r="O122" s="8"/>
       <c t="s" r="P122" s="11">
+        <v>104</v>
+      </c>
+      <c t="s" r="Q122" s="12">
         <v>327</v>
-      </c>
-      <c t="s" r="Q122" s="12">
-        <v>328</v>
       </c>
     </row>
     <row r="123" ht="24.75" customHeight="1">
@@ -5503,7 +5512,7 @@
       </c>
       <c r="B123" s="7"/>
       <c t="s" r="C123" s="8">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
@@ -5520,14 +5529,14 @@
       </c>
       <c r="M123" s="10"/>
       <c t="s" r="N123" s="8">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="O123" s="8"/>
       <c t="s" r="P123" s="11">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c t="s" r="Q123" s="12">
-        <v>63</v>
+        <v>331</v>
       </c>
     </row>
     <row r="124" ht="25.5" customHeight="1">
@@ -5536,14 +5545,14 @@
       </c>
       <c r="B124" s="7"/>
       <c t="s" r="C124" s="8">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
       <c r="G124" s="8"/>
       <c t="s" r="H124" s="9">
-        <v>84</v>
+        <v>17</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
@@ -5553,14 +5562,14 @@
       </c>
       <c r="M124" s="10"/>
       <c t="s" r="N124" s="8">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="O124" s="8"/>
       <c t="s" r="P124" s="11">
-        <v>332</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q124" s="12">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="125" ht="24.75" customHeight="1">
@@ -5569,14 +5578,14 @@
       </c>
       <c r="B125" s="7"/>
       <c t="s" r="C125" s="8">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
       <c r="G125" s="8"/>
       <c t="s" r="H125" s="9">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
@@ -5586,11 +5595,11 @@
       </c>
       <c r="M125" s="10"/>
       <c t="s" r="N125" s="8">
-        <v>195</v>
+        <v>321</v>
       </c>
       <c r="O125" s="8"/>
       <c t="s" r="P125" s="11">
-        <v>196</v>
+        <v>335</v>
       </c>
       <c t="s" r="Q125" s="12">
         <v>20</v>
@@ -5602,14 +5611,14 @@
       </c>
       <c r="B126" s="7"/>
       <c t="s" r="C126" s="8">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
       <c r="G126" s="8"/>
       <c t="s" r="H126" s="9">
-        <v>335</v>
+        <v>57</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
@@ -5619,11 +5628,11 @@
       </c>
       <c r="M126" s="10"/>
       <c t="s" r="N126" s="8">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="O126" s="8"/>
       <c t="s" r="P126" s="11">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c t="s" r="Q126" s="12">
         <v>20</v>
@@ -5635,14 +5644,14 @@
       </c>
       <c r="B127" s="7"/>
       <c t="s" r="C127" s="8">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
       <c r="G127" s="8"/>
       <c t="s" r="H127" s="9">
-        <v>17</v>
+        <v>338</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
@@ -5652,14 +5661,14 @@
       </c>
       <c r="M127" s="10"/>
       <c t="s" r="N127" s="8">
-        <v>320</v>
+        <v>202</v>
       </c>
       <c r="O127" s="8"/>
       <c t="s" r="P127" s="11">
-        <v>219</v>
+        <v>77</v>
       </c>
       <c t="s" r="Q127" s="12">
-        <v>55</v>
+        <v>20</v>
       </c>
     </row>
     <row r="128" ht="24.75" customHeight="1">
@@ -5668,14 +5677,14 @@
       </c>
       <c r="B128" s="7"/>
       <c t="s" r="C128" s="8">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
       <c r="G128" s="8"/>
       <c t="s" r="H128" s="9">
-        <v>139</v>
+        <v>17</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
@@ -5685,14 +5694,14 @@
       </c>
       <c r="M128" s="10"/>
       <c t="s" r="N128" s="8">
-        <v>195</v>
+        <v>323</v>
       </c>
       <c r="O128" s="8"/>
       <c t="s" r="P128" s="11">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c t="s" r="Q128" s="12">
-        <v>20</v>
+        <v>55</v>
       </c>
     </row>
     <row r="129" ht="25.5" customHeight="1">
@@ -5701,14 +5710,14 @@
       </c>
       <c r="B129" s="7"/>
       <c t="s" r="C129" s="8">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
       <c r="G129" s="8"/>
       <c t="s" r="H129" s="9">
-        <v>339</v>
+        <v>139</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
@@ -5718,51 +5727,84 @@
       </c>
       <c r="M129" s="10"/>
       <c t="s" r="N129" s="8">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="O129" s="8"/>
       <c t="s" r="P129" s="11">
+        <v>196</v>
+      </c>
+      <c t="s" r="Q129" s="12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" ht="24.75" customHeight="1">
+      <c r="A130" s="7">
+        <v>124</v>
+      </c>
+      <c r="B130" s="7"/>
+      <c t="s" r="C130" s="8">
+        <v>341</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8"/>
+      <c r="F130" s="8"/>
+      <c r="G130" s="8"/>
+      <c t="s" r="H130" s="9">
+        <v>342</v>
+      </c>
+      <c r="I130" s="9"/>
+      <c r="J130" s="9"/>
+      <c r="K130" s="9"/>
+      <c t="s" r="L130" s="10">
+        <v>33</v>
+      </c>
+      <c r="M130" s="10"/>
+      <c t="s" r="N130" s="8">
+        <v>226</v>
+      </c>
+      <c r="O130" s="8"/>
+      <c t="s" r="P130" s="11">
         <v>217</v>
       </c>
-      <c t="s" r="Q129" s="12">
+      <c t="s" r="Q130" s="12">
         <v>63</v>
       </c>
     </row>
-    <row r="130" ht="25.5" customHeight="1">
-      <c r="N130" s="13">
-        <v>8637.1399999999994</v>
-      </c>
-      <c r="O130" s="13"/>
-      <c r="P130" s="13"/>
-      <c r="Q130" s="13"/>
-    </row>
-    <row r="131" ht="16.5" customHeight="1">
-      <c t="s" r="A131" s="14">
-        <v>340</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="14"/>
-      <c r="D131" s="14"/>
-      <c r="E131" s="14"/>
-      <c r="F131" s="14"/>
-      <c t="s" r="G131" s="15">
-        <v>341</v>
-      </c>
-      <c r="H131" s="15"/>
-      <c r="I131" s="15"/>
-      <c r="J131" s="16"/>
-      <c t="s" r="K131" s="17">
-        <v>342</v>
-      </c>
-      <c r="L131" s="17"/>
-      <c r="M131" s="17"/>
-      <c r="N131" s="17"/>
-      <c r="O131" s="17"/>
-      <c r="P131" s="17"/>
-      <c r="Q131" s="17"/>
+    <row r="131" ht="26.25" customHeight="1">
+      <c r="N131" s="13">
+        <v>8656.6399999999994</v>
+      </c>
+      <c r="O131" s="13"/>
+      <c r="P131" s="13"/>
+      <c r="Q131" s="13"/>
+    </row>
+    <row r="132" ht="16.5" customHeight="1">
+      <c t="s" r="A132" s="14">
+        <v>343</v>
+      </c>
+      <c r="B132" s="14"/>
+      <c r="C132" s="14"/>
+      <c r="D132" s="14"/>
+      <c r="E132" s="14"/>
+      <c r="F132" s="14"/>
+      <c t="s" r="G132" s="15">
+        <v>344</v>
+      </c>
+      <c r="H132" s="15"/>
+      <c r="I132" s="15"/>
+      <c r="J132" s="16"/>
+      <c t="s" r="K132" s="17">
+        <v>345</v>
+      </c>
+      <c r="L132" s="17"/>
+      <c r="M132" s="17"/>
+      <c r="N132" s="17"/>
+      <c r="O132" s="17"/>
+      <c r="P132" s="17"/>
+      <c r="Q132" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="627">
+  <mergeCells count="632">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -6386,10 +6428,15 @@
     <mergeCell ref="H129:K129"/>
     <mergeCell ref="L129:M129"/>
     <mergeCell ref="N129:O129"/>
-    <mergeCell ref="N130:Q130"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="G131:I131"/>
-    <mergeCell ref="K131:Q131"/>
+    <mergeCell ref="A130:B130"/>
+    <mergeCell ref="C130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="N130:O130"/>
+    <mergeCell ref="N131:Q131"/>
+    <mergeCell ref="A132:F132"/>
+    <mergeCell ref="G132:I132"/>
+    <mergeCell ref="K132:Q132"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
